--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EAE51-0653-7841-AA60-1FE26DA0A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E76C00-9618-8A4D-8F0F-68E3A55B41AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="26">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dark </t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -487,20 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,19 +535,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -561,7 +567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -578,7 +584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -595,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -612,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -629,7 +635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -646,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -663,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -680,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -697,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -714,7 +720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -731,7 +737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -748,7 +754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -765,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
@@ -782,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>23</v>
       </c>

--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E76C00-9618-8A4D-8F0F-68E3A55B41AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BF8C11-38DA-3049-9D9C-C08513A8F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -37,48 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="26">
-  <si>
-    <t>Sample_ID</t>
-  </si>
-  <si>
-    <t>DNA_Tube_ID</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Lifestage</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Isotope</t>
-  </si>
-  <si>
-    <t>WhirlPak</t>
-  </si>
-  <si>
-    <t>Time Start</t>
-  </si>
-  <si>
-    <t>Time End</t>
-  </si>
-  <si>
-    <t>Time Sampled</t>
-  </si>
-  <si>
-    <t>Freezer</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
   <si>
     <t>Run1</t>
   </si>
@@ -114,6 +72,48 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>tube_id</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifestage</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>isotope</t>
+  </si>
+  <si>
+    <t>whirlpack</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>time_sampled</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,2191 +505,2191 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>30</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2">
         <v>27</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2">
         <v>30</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F85" s="2">
         <v>33</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F86">
         <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F87">
         <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F89">
         <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F99" s="2">
         <v>27</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F101">
         <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F102">
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F104">
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F107">
         <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F108">
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F109">
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F110">
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F111">
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F113" s="2">
         <v>30</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F118">
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F119">
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F120">
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F121">
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F122">
         <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F123">
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F124">
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F125">
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F126">
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F127" s="2">
         <v>33</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08588095-64EE-3242-9970-27783376C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0251644-746E-1B4A-8396-02BAD3E2AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="760" windowWidth="22140" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="134">
   <si>
     <t>sample_id</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>control run, from extra corals; each coral was a different colony</t>
+  </si>
+  <si>
+    <t>Molecular -40C mesh bag (2 bags total)</t>
   </si>
 </sst>
 </file>
@@ -812,8 +815,8 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,7 +1644,7 @@
         <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
         <v>117</v>
@@ -1667,7 +1670,7 @@
         <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
         <v>117</v>
@@ -1693,7 +1696,7 @@
         <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
         <v>117</v>
@@ -1719,7 +1722,7 @@
         <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
         <v>117</v>
@@ -1745,7 +1748,7 @@
         <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
         <v>117</v>
@@ -1771,7 +1774,7 @@
         <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
         <v>117</v>
@@ -1797,7 +1800,7 @@
         <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
         <v>117</v>
@@ -1823,7 +1826,7 @@
         <v>116</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
         <v>117</v>
@@ -1849,7 +1852,7 @@
         <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
         <v>117</v>
@@ -1875,7 +1878,7 @@
         <v>116</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
         <v>117</v>
@@ -1901,7 +1904,7 @@
         <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
         <v>117</v>
@@ -1927,7 +1930,7 @@
         <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
         <v>117</v>
@@ -1982,7 +1985,7 @@
         <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
         <v>117</v>
@@ -2008,7 +2011,7 @@
         <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
         <v>117</v>
@@ -2034,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
         <v>117</v>
@@ -2089,7 +2092,7 @@
         <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
         <v>117</v>
@@ -2118,7 +2121,7 @@
         <v>116</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
         <v>117</v>
@@ -2144,7 +2147,7 @@
         <v>116</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
         <v>117</v>
@@ -2170,7 +2173,7 @@
         <v>116</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
         <v>117</v>
@@ -2196,7 +2199,7 @@
         <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
         <v>117</v>
@@ -2225,7 +2228,7 @@
         <v>116</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H53" t="s">
         <v>117</v>
@@ -2251,7 +2254,7 @@
         <v>116</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
         <v>117</v>
@@ -2306,7 +2309,7 @@
         <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
         <v>117</v>
@@ -2361,7 +2364,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
         <v>117</v>
@@ -2387,7 +2390,7 @@
         <v>116</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H59" t="s">
         <v>117</v>
@@ -2413,7 +2416,7 @@
         <v>116</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H60" t="s">
         <v>117</v>
@@ -2439,7 +2442,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
         <v>117</v>
@@ -2465,7 +2468,7 @@
         <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
         <v>117</v>
@@ -2491,7 +2494,7 @@
         <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
         <v>117</v>
@@ -2517,7 +2520,7 @@
         <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
         <v>117</v>
@@ -2543,7 +2546,7 @@
         <v>116</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
         <v>117</v>
@@ -2569,7 +2572,7 @@
         <v>116</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
         <v>117</v>
@@ -2595,7 +2598,7 @@
         <v>116</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H67" t="s">
         <v>117</v>
@@ -2621,7 +2624,7 @@
         <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
         <v>117</v>
@@ -2647,7 +2650,7 @@
         <v>116</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H69" t="s">
         <v>117</v>
@@ -2673,7 +2676,7 @@
         <v>116</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H70" t="s">
         <v>117</v>
@@ -2699,7 +2702,7 @@
         <v>116</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H71" t="s">
         <v>117</v>
@@ -2725,7 +2728,7 @@
         <v>116</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H72" t="s">
         <v>117</v>
@@ -2751,7 +2754,7 @@
         <v>116</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H73" t="s">
         <v>117</v>
@@ -2777,7 +2780,7 @@
         <v>116</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
         <v>117</v>
@@ -2832,7 +2835,7 @@
         <v>116</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
         <v>117</v>
@@ -2858,7 +2861,7 @@
         <v>116</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
         <v>117</v>
@@ -2884,7 +2887,7 @@
         <v>116</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
         <v>117</v>
@@ -2910,7 +2913,7 @@
         <v>116</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
         <v>117</v>
@@ -2965,7 +2968,7 @@
         <v>116</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
         <v>117</v>
@@ -2991,7 +2994,7 @@
         <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H82" t="s">
         <v>117</v>
@@ -3017,7 +3020,7 @@
         <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H83" t="s">
         <v>117</v>
@@ -3043,7 +3046,7 @@
         <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
         <v>117</v>
@@ -3069,7 +3072,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H85" t="s">
         <v>117</v>
@@ -3095,7 +3098,7 @@
         <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H86" t="s">
         <v>117</v>
@@ -3121,7 +3124,7 @@
         <v>116</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
         <v>117</v>
@@ -3147,7 +3150,7 @@
         <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H88" t="s">
         <v>117</v>
@@ -3173,7 +3176,7 @@
         <v>116</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H89" t="s">
         <v>117</v>
@@ -3199,7 +3202,7 @@
         <v>116</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H90" t="s">
         <v>117</v>
@@ -3225,7 +3228,7 @@
         <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H91" t="s">
         <v>117</v>
@@ -3251,7 +3254,7 @@
         <v>116</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H92" t="s">
         <v>117</v>
@@ -3277,7 +3280,7 @@
         <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H93" t="s">
         <v>117</v>
@@ -3303,7 +3306,7 @@
         <v>116</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H94" t="s">
         <v>117</v>
@@ -3329,7 +3332,7 @@
         <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H95" t="s">
         <v>117</v>
@@ -3355,7 +3358,7 @@
         <v>116</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H96" t="s">
         <v>117</v>
@@ -3381,7 +3384,7 @@
         <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H97" t="s">
         <v>117</v>
@@ -3407,7 +3410,7 @@
         <v>116</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H98" t="s">
         <v>117</v>
@@ -3462,7 +3465,7 @@
         <v>116</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H100" t="s">
         <v>117</v>
@@ -3488,7 +3491,7 @@
         <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H101" t="s">
         <v>117</v>
@@ -3514,7 +3517,7 @@
         <v>116</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H102" t="s">
         <v>117</v>
@@ -3540,7 +3543,7 @@
         <v>116</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H103" t="s">
         <v>117</v>
@@ -3566,7 +3569,7 @@
         <v>116</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
         <v>117</v>
@@ -3621,7 +3624,7 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H106" t="s">
         <v>117</v>
@@ -3647,7 +3650,7 @@
         <v>116</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H107" t="s">
         <v>117</v>
@@ -3673,7 +3676,7 @@
         <v>116</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H108" t="s">
         <v>117</v>
@@ -3699,7 +3702,7 @@
         <v>116</v>
       </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H109" t="s">
         <v>117</v>
@@ -3725,7 +3728,7 @@
         <v>116</v>
       </c>
       <c r="G110" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H110" t="s">
         <v>117</v>
@@ -3754,7 +3757,7 @@
         <v>116</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H111" t="s">
         <v>117</v>
@@ -3783,7 +3786,7 @@
         <v>116</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H112" t="s">
         <v>117</v>
@@ -3812,7 +3815,7 @@
         <v>116</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H113" t="s">
         <v>117</v>
@@ -3841,7 +3844,7 @@
         <v>116</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H114" t="s">
         <v>117</v>
@@ -3870,7 +3873,7 @@
         <v>116</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H115" t="s">
         <v>117</v>

--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0251644-746E-1B4A-8396-02BAD3E2AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3026CCA-3A65-4846-807D-E4AF6531C42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="760" windowWidth="22140" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="22140" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="120">
   <si>
     <t>sample_id</t>
   </si>
@@ -62,9 +62,6 @@
     <t>ACR-A20</t>
   </si>
   <si>
-    <t>ACR-A21</t>
-  </si>
-  <si>
     <t>ACR-A22</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>ACR-A29</t>
   </si>
   <si>
-    <t>ACR-A30</t>
-  </si>
-  <si>
     <t>ACR-A31</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>ACR-R32</t>
   </si>
   <si>
-    <t>ACR-R33</t>
-  </si>
-  <si>
     <t>ACR-R34</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>ACR-R43</t>
   </si>
   <si>
-    <t>ACR-R44</t>
-  </si>
-  <si>
     <t>ACR-R45</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>POC-A22</t>
   </si>
   <si>
-    <t>POC-A23</t>
-  </si>
-  <si>
     <t>POC-A24</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>POC-A26</t>
   </si>
   <si>
-    <t>POC-A27</t>
-  </si>
-  <si>
     <t>POC-A28</t>
   </si>
   <si>
@@ -212,15 +194,9 @@
     <t>POC-R32</t>
   </si>
   <si>
-    <t>POC-R33</t>
-  </si>
-  <si>
     <t>POC-R34</t>
   </si>
   <si>
-    <t>POC-R35</t>
-  </si>
-  <si>
     <t>POC-R37</t>
   </si>
   <si>
@@ -272,9 +248,6 @@
     <t>POR-A18</t>
   </si>
   <si>
-    <t>POR-A19</t>
-  </si>
-  <si>
     <t>POR-A20</t>
   </si>
   <si>
@@ -287,9 +260,6 @@
     <t>POR-A23</t>
   </si>
   <si>
-    <t>POR-A24</t>
-  </si>
-  <si>
     <t>POR-A25</t>
   </si>
   <si>
@@ -344,9 +314,6 @@
     <t>POR-R40</t>
   </si>
   <si>
-    <t>POR-R41</t>
-  </si>
-  <si>
     <t>POR-R42</t>
   </si>
   <si>
@@ -362,9 +329,6 @@
     <t>POR-R46</t>
   </si>
   <si>
-    <t>POR-R47</t>
-  </si>
-  <si>
     <t>POR-R48</t>
   </si>
   <si>
@@ -405,12 +369,6 @@
   </si>
   <si>
     <t>Dark C13</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Not run in incubations</t>
   </si>
   <si>
     <t>ACR-C12-27</t>
@@ -812,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,16 +798,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -863,7 +821,7 @@
         <v>20231112</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -872,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -889,7 +847,7 @@
         <v>20231113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2">
         <v>27</v>
@@ -898,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -915,7 +873,7 @@
         <v>20231113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2">
         <v>33</v>
@@ -924,42 +882,39 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>123</v>
+      <c r="B5">
+        <v>20231112</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -967,25 +922,25 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -993,51 +948,51 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>20231112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="B8" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,51 +1000,51 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2">
         <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10">
+        <v>20231112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10">
         <v>33</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1097,132 +1052,129 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>20231113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="B12" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
+      <c r="B13">
+        <v>20231113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>123</v>
+      <c r="B14">
+        <v>20231112</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>20231113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="B15" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1233,7 +1185,7 @@
         <v>20231112</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -1242,13 +1194,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1256,25 +1208,28 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2">
         <v>33</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1285,51 +1240,48 @@
         <v>20231112</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
+      <c r="B19" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1340,7 +1292,7 @@
         <v>20231113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2">
         <v>33</v>
@@ -1349,16 +1301,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1366,77 +1315,77 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="2">
-        <v>27</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
+      <c r="B22">
+        <v>20231112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="2">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
+      <c r="B23">
+        <v>20231113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,48 +1396,48 @@
         <v>20231113</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>20231112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25">
+      <c r="B25" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1496,25 +1445,25 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>30</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1525,22 +1474,22 @@
         <v>20231113</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1551,22 +1500,22 @@
         <v>20231113</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
         <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1577,51 +1526,48 @@
         <v>20231112</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
         <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>123</v>
+      <c r="B30" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1629,103 +1575,103 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="2">
-        <v>27</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32">
+        <v>20231112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
-        <v>20231112</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="B33" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3</v>
+      <c r="B34">
+        <v>20231112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1733,25 +1679,25 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1759,51 +1705,51 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="2">
-        <v>27</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3</v>
+      <c r="B37">
+        <v>20231112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1814,22 +1760,22 @@
         <v>20231112</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,132 +1783,132 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
-        <v>20231113</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40">
-        <v>27</v>
-      </c>
-      <c r="E40">
+      <c r="B40" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="2">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
-        <v>20231112</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41">
-        <v>27</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="B41" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="2">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
-        <v>20231112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42">
+      <c r="B42" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="2">
         <v>33</v>
       </c>
-      <c r="E42">
-        <v>3</v>
+      <c r="E42" s="2">
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>123</v>
+      <c r="B43">
+        <v>20231113</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1973,22 +1919,22 @@
         <v>20231112</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,25 +1942,25 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2025,51 +1971,51 @@
         <v>20231113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>123</v>
+      <c r="B47">
+        <v>20231112</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2080,54 +2026,51 @@
         <v>20231113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2135,25 +2078,25 @@
         <v>20231112</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2161,80 +2104,77 @@
         <v>20231113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="2">
-        <v>33</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="B52">
+        <v>20231112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+      <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
-        <v>20231112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-      <c r="E53">
+      <c r="B53" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="2">
+        <v>33</v>
+      </c>
+      <c r="E53" s="2">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2242,7 +2182,7 @@
         <v>20231113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D54" s="2">
         <v>27</v>
@@ -2251,178 +2191,172 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
-        <v>123</v>
+      <c r="B55">
+        <v>20231112</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
-        <v>123</v>
+      <c r="B57">
+        <v>20231112</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
-      </c>
-      <c r="I57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
-        <v>20231112</v>
-      </c>
-      <c r="C58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58">
-        <v>27</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="B58" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="2">
+        <v>33</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="2">
-        <v>33</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2</v>
+      <c r="B59">
+        <v>20231113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D60">
         <v>30</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2430,7 +2364,7 @@
         <v>20231113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -2439,16 +2373,16 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2456,7 +2390,7 @@
         <v>20231113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D62" s="2">
         <v>27</v>
@@ -2465,16 +2399,16 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2482,25 +2416,25 @@
         <v>20231112</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2508,7 +2442,7 @@
         <v>20231113</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D64">
         <v>30</v>
@@ -2517,250 +2451,250 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65">
-        <v>20231112</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65">
-        <v>27</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="B65" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="2">
+        <v>33</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2">
         <v>33</v>
       </c>
       <c r="E66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D67">
         <v>27</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
-        <v>20231113</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68">
-        <v>30</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="B68" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="2">
+        <v>33</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="2">
-        <v>33</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="B69">
+        <v>20231112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="2">
-        <v>27</v>
-      </c>
-      <c r="E70" s="2">
-        <v>3</v>
+      <c r="B70">
+        <v>20231112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
-        <v>20231112</v>
-      </c>
-      <c r="C71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71">
-        <v>30</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+      <c r="B71" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D73" s="2">
         <v>33</v>
       </c>
       <c r="E73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2768,106 +2702,103 @@
         <v>20231113</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D74" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>123</v>
+      <c r="B75">
+        <v>20231113</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
-      </c>
-      <c r="I75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76">
-        <v>20231112</v>
+        <v>20231113</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="2">
-        <v>33</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="B77">
+        <v>20231113</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2875,25 +2806,25 @@
         <v>20231112</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2901,7 +2832,7 @@
         <v>20231112</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D79">
         <v>27</v>
@@ -2910,42 +2841,39 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>123</v>
+      <c r="B80">
+        <v>20231113</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H80" t="s">
-        <v>123</v>
-      </c>
-      <c r="I80" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,7 +2884,7 @@
         <v>20231113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D81" s="2">
         <v>27</v>
@@ -2965,13 +2893,13 @@
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H81" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2982,7 +2910,7 @@
         <v>20231112</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -2991,13 +2919,13 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,7 +2936,7 @@
         <v>20231113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D83" s="2">
         <v>33</v>
@@ -3017,39 +2945,39 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="2">
-        <v>27</v>
-      </c>
-      <c r="E84" s="2">
-        <v>3</v>
+      <c r="B84">
+        <v>20231112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3060,7 +2988,7 @@
         <v>20231113</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3069,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3083,25 +3011,25 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3109,77 +3037,77 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88">
-        <v>20231112</v>
-      </c>
-      <c r="C88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88">
-        <v>33</v>
-      </c>
-      <c r="E88">
+      <c r="B88" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="2">
+        <v>27</v>
+      </c>
+      <c r="E88" s="2">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89">
-        <v>20231112</v>
-      </c>
-      <c r="C89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89">
-        <v>27</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+      <c r="B89" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="2">
+        <v>27</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3190,126 +3118,126 @@
         <v>20231113</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="2">
-        <v>27</v>
-      </c>
-      <c r="E91" s="2">
-        <v>3</v>
+      <c r="B91">
+        <v>20231112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92">
-        <v>20231112</v>
-      </c>
-      <c r="C92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92">
-        <v>30</v>
-      </c>
-      <c r="E92">
+      <c r="B92" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="2">
+        <v>33</v>
+      </c>
+      <c r="E92" s="2">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="2">
-        <v>33</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2</v>
+      <c r="B93">
+        <v>20231113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94">
-        <v>20231112</v>
-      </c>
-      <c r="C94" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94">
-        <v>27</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
+      <c r="B94" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="2">
+        <v>33</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3317,569 +3245,251 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>20231113</v>
+        <v>20231112</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D95">
         <v>30</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96">
-        <v>20231112</v>
-      </c>
-      <c r="C96" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96">
+      <c r="B96" s="2">
+        <v>20231113</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="2">
         <v>33</v>
       </c>
-      <c r="E96">
-        <v>3</v>
+      <c r="E96" s="2">
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97">
-        <v>20231112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97">
-        <v>30</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
+      <c r="B97" s="2">
+        <v>20231112</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="2">
+        <v>33</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2">
-        <v>20231113</v>
+        <v>20231116</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D98" s="2">
         <v>27</v>
       </c>
       <c r="E98" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I98" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="B99" s="2">
+        <v>20231116</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="2">
+        <v>27</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G99" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
-        <v>20231113</v>
+        <v>20231116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2">
         <v>27</v>
       </c>
       <c r="E100" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H100" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I100" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101">
-        <v>20231113</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101">
-        <v>27</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="B101" s="2">
+        <v>20231116</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="2">
+        <v>27</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I101" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102">
-        <v>20231112</v>
-      </c>
-      <c r="C102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102">
-        <v>27</v>
-      </c>
-      <c r="E102">
+        <v>116</v>
+      </c>
+      <c r="B102" s="2">
+        <v>20231116</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="2">
+        <v>27</v>
+      </c>
+      <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="I102" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2">
-        <v>20231113</v>
+        <v>20231116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D103" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104">
-        <v>20231113</v>
-      </c>
-      <c r="C104" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104">
-        <v>30</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>133</v>
-      </c>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" t="s">
-        <v>123</v>
-      </c>
-      <c r="D105" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" t="s">
-        <v>123</v>
-      </c>
-      <c r="G105" t="s">
-        <v>123</v>
-      </c>
-      <c r="H105" t="s">
-        <v>123</v>
-      </c>
-      <c r="I105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="2">
-        <v>33</v>
-      </c>
-      <c r="E106" s="2">
-        <v>3</v>
-      </c>
-      <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107">
-        <v>20231112</v>
-      </c>
-      <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107">
-        <v>30</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
-      <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" s="2">
-        <v>33</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2</v>
-      </c>
-      <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>133</v>
-      </c>
-      <c r="H108" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" s="2">
-        <v>33</v>
-      </c>
-      <c r="E109" s="2">
-        <v>3</v>
-      </c>
-      <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
-      <c r="H109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" s="2">
-        <v>27</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
-      <c r="H110" t="s">
-        <v>117</v>
-      </c>
-      <c r="I110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B111" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D111" s="2">
-        <v>27</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
-      <c r="H111" t="s">
-        <v>117</v>
-      </c>
-      <c r="I111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="2">
-        <v>27</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>116</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
-      <c r="H112" t="s">
-        <v>117</v>
-      </c>
-      <c r="I112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="2">
-        <v>27</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
-      <c r="H113" t="s">
-        <v>117</v>
-      </c>
-      <c r="I113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>130</v>
-      </c>
-      <c r="B114" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="2">
-        <v>27</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s">
-        <v>133</v>
-      </c>
-      <c r="H114" t="s">
-        <v>117</v>
-      </c>
-      <c r="I114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-      <c r="B115" s="2">
-        <v>20231116</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="2">
-        <v>27</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
-      <c r="H115" t="s">
-        <v>117</v>
-      </c>
-      <c r="I115" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="I103" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3026CCA-3A65-4846-807D-E4AF6531C42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F4CF9C-6188-5743-9F10-AE6005E289AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="22140" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-19860" yWindow="-780" windowWidth="18160" windowHeight="19420" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -432,12 +432,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -452,10 +458,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -514,7 +522,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -620,7 +628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -762,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,8 +781,8 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1649,236 +1657,236 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
-        <v>20231112</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34">
+      <c r="B34" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="3">
         <v>30</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
-        <v>20231113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="3">
         <v>30</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
-        <v>20231113</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D36">
-        <v>27</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="D36" s="3">
+        <v>27</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
-        <v>20231112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="B37" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="3">
+        <v>27</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
-        <v>20231112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="3">
         <v>33</v>
       </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
-        <v>20231112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39">
-        <v>27</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="B39" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="3">
+        <v>27</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="4">
+        <v>20231112</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="4">
         <v>33</v>
       </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="2">
-        <v>27</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="B41" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="4">
+        <v>27</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="4">
         <v>33</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I42" t="s">
@@ -1886,106 +1894,106 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43">
-        <v>20231113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3">
         <v>30</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
-        <v>20231112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="3">
         <v>30</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="2">
-        <v>27</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="B45" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="4">
         <v>33</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I46" t="s">
@@ -1993,496 +2001,496 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
-        <v>20231112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="3">
         <v>30</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" t="s">
-        <v>119</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="2">
-        <v>27</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="B48" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="4">
+        <v>27</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
-        <v>20231112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="3">
         <v>33</v>
       </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
-        <v>20231112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="B50" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="3">
+        <v>27</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="4">
         <v>33</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
-        <v>20231112</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52">
+      <c r="B52" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3">
         <v>30</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" t="s">
-        <v>119</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B53" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="4">
         <v>33</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="2">
-        <v>27</v>
-      </c>
-      <c r="E54" s="2">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="B54" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="4">
+        <v>27</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B55">
-        <v>20231112</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55">
-        <v>27</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="B55" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="3">
+        <v>27</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
-        <v>20231113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56">
+      <c r="B56" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3">
         <v>30</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B57">
-        <v>20231112</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57">
-        <v>27</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="B57" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="3">
+        <v>27</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="B58" s="4">
+        <v>20231112</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="4">
         <v>33</v>
       </c>
-      <c r="E58" s="2">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G58" t="s">
-        <v>119</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="E58" s="4">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
-        <v>20231113</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D59">
-        <v>27</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="D59" s="3">
+        <v>27</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
-        <v>20231113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60">
+      <c r="B60" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="3">
         <v>30</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="B61" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="4">
         <v>33</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="F61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="2">
-        <v>20231113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="2">
-        <v>27</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="B62" s="4">
+        <v>20231113</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="4">
+        <v>27</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
-        <v>20231112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63">
+      <c r="B63" s="3">
+        <v>20231112</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="3">
         <v>30</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="F63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
-        <v>20231113</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64">
+      <c r="B64" s="3">
+        <v>20231113</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="3">
         <v>30</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" t="s">
-        <v>119</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="2">
-        <v>20231112</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="4">
+        <v>20231112</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="4">
         <v>33</v>
       </c>
-      <c r="E65" s="2">
-        <v>3</v>
-      </c>
-      <c r="F65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G65" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>105</v>
       </c>
     </row>

--- a/data/isotopes/sample_metadata_isotopes.xlsx
+++ b/data/isotopes/sample_metadata_isotopes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F4CF9C-6188-5743-9F10-AE6005E289AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D6E20-8E59-E249-8D0D-D5A75ACBCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19860" yWindow="-780" windowWidth="18160" windowHeight="19420" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-19860" yWindow="-900" windowWidth="18160" windowHeight="19420" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,8 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3450,7 +3450,7 @@
         <v>20231116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2">
         <v>27</v>
@@ -3479,7 +3479,7 @@
         <v>20231116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D103" s="2">
         <v>27</v>
